--- a/Documentation/DisplayBookshelves-1(Dominators).xlsx
+++ b/Documentation/DisplayBookshelves-1(Dominators).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15855" windowHeight="4500" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HOME" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">'TEST CASES'!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1534,11 +1535,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent3 2" xfId="7"/>
@@ -1888,7 +1889,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2319,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,7 +3000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3046,7 +3047,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="57" t="s">
         <v>195</v>
       </c>
       <c r="B2" s="26"/>
@@ -3058,7 +3059,7 @@
       <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="28"/>
@@ -3068,7 +3069,7 @@
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="26" t="s">
         <v>111</v>
       </c>
@@ -3092,7 +3093,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="26" t="s">
         <v>114</v>
       </c>
@@ -3433,62 +3434,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
     </row>
     <row r="3" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
